--- a/data/trans_orig/P15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>57754</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45243</v>
+        <v>44810</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>75768</v>
+        <v>74048</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0832181520818807</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06519084115428095</v>
+        <v>0.06456621793202176</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.109173767480224</v>
+        <v>0.1066952901227028</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -765,19 +765,19 @@
         <v>35407</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25275</v>
+        <v>25261</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47969</v>
+        <v>48837</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05143771737571987</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03671857684420295</v>
+        <v>0.03669755869756945</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0696872567512231</v>
+        <v>0.07094774065754673</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>94</v>
@@ -786,19 +786,19 @@
         <v>93162</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>75579</v>
+        <v>77601</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>112590</v>
+        <v>114508</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06739300884498649</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05467377455149532</v>
+        <v>0.05613612747229021</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08144766329277409</v>
+        <v>0.08283474179813666</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>636258</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>618244</v>
+        <v>619964</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>648769</v>
+        <v>649202</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9167818479181193</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8908262325197757</v>
+        <v>0.893304709877297</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9348091588457189</v>
+        <v>0.9354337820679781</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>660</v>
@@ -836,19 +836,19 @@
         <v>652944</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>640382</v>
+        <v>639514</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>663076</v>
+        <v>663090</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9485622826242801</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.930312743248777</v>
+        <v>0.9290522593424533</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.963281423155797</v>
+        <v>0.9633024413024306</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1285</v>
@@ -857,19 +857,19 @@
         <v>1289201</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1269773</v>
+        <v>1267855</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1306784</v>
+        <v>1304762</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9326069911550136</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9185523367072258</v>
+        <v>0.9171652582018633</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9453262254485046</v>
+        <v>0.9438638725277098</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>84244</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>66260</v>
+        <v>65800</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>102387</v>
+        <v>103084</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08758973474695385</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06889170818030847</v>
+        <v>0.06841373901752884</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1064537586556003</v>
+        <v>0.1071781664865296</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -982,19 +982,19 @@
         <v>58705</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45230</v>
+        <v>45272</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>76507</v>
+        <v>73043</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06062144402559382</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04670591410398972</v>
+        <v>0.04674953797640641</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07900363953703617</v>
+        <v>0.07542650956641314</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>132</v>
@@ -1003,19 +1003,19 @@
         <v>142949</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>121874</v>
+        <v>119422</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>169243</v>
+        <v>165534</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0740595309452716</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06314109089537891</v>
+        <v>0.06187058464467876</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0876817989609832</v>
+        <v>0.08576051474765303</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>877556</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>859413</v>
+        <v>858716</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>895540</v>
+        <v>896000</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9124102652530461</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8935462413443996</v>
+        <v>0.8928218335134704</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9311082918196916</v>
+        <v>0.9315862609824713</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>854</v>
@@ -1053,19 +1053,19 @@
         <v>909688</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>891886</v>
+        <v>895350</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>923163</v>
+        <v>923121</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9393785559744062</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9209963604629637</v>
+        <v>0.9245734904335869</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9532940858960102</v>
+        <v>0.9532504620235938</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1672</v>
@@ -1074,19 +1074,19 @@
         <v>1787244</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1760950</v>
+        <v>1764659</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1808319</v>
+        <v>1810771</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9259404690547284</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.912318201039017</v>
+        <v>0.914239485252347</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9368589091046211</v>
+        <v>0.9381294153553213</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>45725</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33963</v>
+        <v>34257</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>62280</v>
+        <v>61371</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06739093602780698</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0500557563936796</v>
+        <v>0.05048807758357488</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09178987362812313</v>
+        <v>0.09044990283571414</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -1199,19 +1199,19 @@
         <v>34931</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24506</v>
+        <v>24470</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47457</v>
+        <v>48097</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05108046466559122</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03583589555107111</v>
+        <v>0.0357826055968017</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06939747331471222</v>
+        <v>0.07033388749574072</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>79</v>
@@ -1220,19 +1220,19 @@
         <v>80656</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>63447</v>
+        <v>64435</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>100807</v>
+        <v>99983</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05920378145175195</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04657175413030599</v>
+        <v>0.04729681135140859</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07399485806179701</v>
+        <v>0.07339018124049536</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>632784</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>616229</v>
+        <v>617138</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>644546</v>
+        <v>644252</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.932609063972193</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.908210126371877</v>
+        <v>0.9095500971642859</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9499442436063208</v>
+        <v>0.9495119224164255</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>661</v>
@@ -1270,19 +1270,19 @@
         <v>648910</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>636384</v>
+        <v>635744</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>659335</v>
+        <v>659371</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9489195353344088</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9306025266852878</v>
+        <v>0.929666112504259</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9641641044489289</v>
+        <v>0.9642173944031982</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1258</v>
@@ -1291,19 +1291,19 @@
         <v>1281694</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1261543</v>
+        <v>1262367</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1298903</v>
+        <v>1297915</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.940796218548248</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.926005141938203</v>
+        <v>0.9266098187595048</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9534282458696941</v>
+        <v>0.9527031886485914</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>55333</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>41571</v>
+        <v>43552</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>70119</v>
+        <v>70144</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05872590163441648</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0441206153343361</v>
+        <v>0.0462226819968419</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07441887451978677</v>
+        <v>0.07444493198101172</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -1416,19 +1416,19 @@
         <v>46347</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34370</v>
+        <v>35336</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>61647</v>
+        <v>62698</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04462410657004073</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03309206128236127</v>
+        <v>0.03402211383777973</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05935499331535614</v>
+        <v>0.06036701132874936</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>101</v>
@@ -1437,19 +1437,19 @@
         <v>101680</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>84471</v>
+        <v>83431</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>121442</v>
+        <v>121801</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05133189846086182</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04264408585793571</v>
+        <v>0.04211892235188872</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.061308335526577</v>
+        <v>0.06148963386349872</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>886889</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>872103</v>
+        <v>872078</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>900651</v>
+        <v>898670</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9412740983655835</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9255811254802132</v>
+        <v>0.9255550680189881</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.955879384665664</v>
+        <v>0.953777318003158</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>953</v>
@@ -1487,19 +1487,19 @@
         <v>992265</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>976965</v>
+        <v>975914</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1004242</v>
+        <v>1003276</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9553758934299593</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9406450066846436</v>
+        <v>0.9396329886712507</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9669079387176387</v>
+        <v>0.9659778861622204</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1890</v>
@@ -1508,19 +1508,19 @@
         <v>1879154</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1859392</v>
+        <v>1859033</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1896363</v>
+        <v>1897403</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9486681015391382</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.938691664473423</v>
+        <v>0.9385103661365014</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9573559141420643</v>
+        <v>0.9578810776481113</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>243056</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>214716</v>
+        <v>215255</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>274575</v>
+        <v>273284</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07418074369571771</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0655313656296177</v>
+        <v>0.06569570807364032</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08380017648223406</v>
+        <v>0.08340620574547908</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>169</v>
@@ -1633,19 +1633,19 @@
         <v>175391</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>150456</v>
+        <v>151351</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>202505</v>
+        <v>203945</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05190305141419276</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04452412536923828</v>
+        <v>0.04478898497681795</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05992705410673227</v>
+        <v>0.06035305627790653</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>406</v>
@@ -1654,19 +1654,19 @@
         <v>418447</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>380167</v>
+        <v>380493</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>459138</v>
+        <v>459902</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0628700989478881</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05711861997450685</v>
+        <v>0.05716766111040313</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06898373240783388</v>
+        <v>0.06909854299452332</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3033487</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3001968</v>
+        <v>3003259</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3061827</v>
+        <v>3061288</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9258192563042823</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.916199823517766</v>
+        <v>0.9165937942545209</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9344686343703825</v>
+        <v>0.9343042919263597</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3128</v>
@@ -1704,19 +1704,19 @@
         <v>3203806</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3176692</v>
+        <v>3175252</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3228741</v>
+        <v>3227846</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9480969485858073</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9400729458932681</v>
+        <v>0.9396469437220937</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9554758746307618</v>
+        <v>0.9552110150231821</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6105</v>
@@ -1725,19 +1725,19 @@
         <v>6237294</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6196603</v>
+        <v>6195839</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6275574</v>
+        <v>6275248</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9371299010521119</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.931016267592166</v>
+        <v>0.9309014570054767</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.942881380025493</v>
+        <v>0.9428323388895968</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>59022</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45403</v>
+        <v>46203</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>75747</v>
+        <v>73946</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08390102799323765</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0645410577099722</v>
+        <v>0.06567855278317909</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1076763521841255</v>
+        <v>0.1051159646791828</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>50</v>
@@ -2090,19 +2090,19 @@
         <v>53520</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>40953</v>
+        <v>39711</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>70977</v>
+        <v>68179</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07678077733673286</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0587519430029223</v>
+        <v>0.05697074654542805</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1018247333424832</v>
+        <v>0.09781019902310915</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>110</v>
@@ -2111,19 +2111,19 @@
         <v>112542</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>92774</v>
+        <v>92656</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>132877</v>
+        <v>134647</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08035721973877805</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06624265249508915</v>
+        <v>0.0661586517177743</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09487701413584912</v>
+        <v>0.09614101799954425</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>644447</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>627722</v>
+        <v>629523</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>658066</v>
+        <v>657266</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9160989720067624</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8923236478158744</v>
+        <v>0.8948840353208172</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9354589422900277</v>
+        <v>0.9343214472168209</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>600</v>
@@ -2161,19 +2161,19 @@
         <v>643530</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>626073</v>
+        <v>628871</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>656097</v>
+        <v>657339</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9232192226632672</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8981752666575168</v>
+        <v>0.9021898009768911</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9412480569970777</v>
+        <v>0.943029253454572</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1214</v>
@@ -2182,19 +2182,19 @@
         <v>1287977</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1267642</v>
+        <v>1265872</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1307745</v>
+        <v>1307863</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9196427802612219</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9051229858641509</v>
+        <v>0.9038589820004558</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9337573475049109</v>
+        <v>0.9338413482822256</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>81289</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>64843</v>
+        <v>65166</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>102673</v>
+        <v>102619</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07985624257246814</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06369995068567842</v>
+        <v>0.0640169740104195</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1008630902057769</v>
+        <v>0.1008097720282142</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>70</v>
@@ -2307,19 +2307,19 @@
         <v>74623</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>58470</v>
+        <v>58683</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>91922</v>
+        <v>92234</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07229655931142741</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05664733091485554</v>
+        <v>0.05685286058849127</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08905609457728553</v>
+        <v>0.08935765512089745</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>143</v>
@@ -2328,19 +2328,19 @@
         <v>155913</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>132689</v>
+        <v>134578</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>181731</v>
+        <v>184519</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07605015230956184</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06472235494774799</v>
+        <v>0.0656438079320468</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08864345260164409</v>
+        <v>0.09000332745739621</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>936658</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>915274</v>
+        <v>915328</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>953104</v>
+        <v>952781</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9201437574275318</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8991369097942231</v>
+        <v>0.8991902279717859</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9363000493143213</v>
+        <v>0.9359830259895805</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>870</v>
@@ -2378,19 +2378,19 @@
         <v>957561</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>940262</v>
+        <v>939950</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>973714</v>
+        <v>973501</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9277034406885726</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9109439054227145</v>
+        <v>0.9106423448791026</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9433526690851446</v>
+        <v>0.9431471394115087</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1733</v>
@@ -2399,19 +2399,19 @@
         <v>1894218</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1868400</v>
+        <v>1865612</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1917442</v>
+        <v>1915553</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9239498476904382</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.911356547398356</v>
+        <v>0.9099966725426039</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9352776450522523</v>
+        <v>0.9343561920679533</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>58408</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45375</v>
+        <v>45078</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>73925</v>
+        <v>75740</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07709431708706313</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05989192235774967</v>
+        <v>0.05949976441365425</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0975748232651763</v>
+        <v>0.09997049121702854</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -2524,19 +2524,19 @@
         <v>57045</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>43526</v>
+        <v>43450</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74258</v>
+        <v>72609</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07339993129415164</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05600486007481745</v>
+        <v>0.055907888058536</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09554921515757343</v>
+        <v>0.09342694385751565</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>110</v>
@@ -2545,19 +2545,19 @@
         <v>115453</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>96629</v>
+        <v>95390</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>139288</v>
+        <v>136678</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0752235941134968</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0629587043725594</v>
+        <v>0.06215153434809094</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09075337698269631</v>
+        <v>0.08905254068304795</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>699215</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>683698</v>
+        <v>681883</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>712248</v>
+        <v>712545</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9229056829129368</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9024251767348238</v>
+        <v>0.9000295087829716</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9401080776422505</v>
+        <v>0.9405002355863461</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>652</v>
@@ -2595,19 +2595,19 @@
         <v>720129</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>702916</v>
+        <v>704565</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>733648</v>
+        <v>733724</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9266000687058483</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9044507848424265</v>
+        <v>0.9065730561424843</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9439951399251821</v>
+        <v>0.9440921119414641</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1284</v>
@@ -2616,19 +2616,19 @@
         <v>1419344</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1395509</v>
+        <v>1398119</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1438168</v>
+        <v>1439407</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9247764058865032</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9092466230173036</v>
+        <v>0.9109474593169519</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9370412956274404</v>
+        <v>0.9378484656519083</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>89193</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72526</v>
+        <v>72621</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>109172</v>
+        <v>110092</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09411170364868851</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07652544914117199</v>
+        <v>0.07662587415493978</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1151921804181651</v>
+        <v>0.1161627335906211</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>68</v>
@@ -2741,19 +2741,19 @@
         <v>72284</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56477</v>
+        <v>56770</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>89837</v>
+        <v>89551</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06871784609026654</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05369081013429562</v>
+        <v>0.05396864028113332</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08540410657022693</v>
+        <v>0.08513262106009616</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>154</v>
@@ -2762,19 +2762,19 @@
         <v>161478</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>139499</v>
+        <v>138362</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>188698</v>
+        <v>188098</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08075338950696243</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0697619169850778</v>
+        <v>0.06919347704009272</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0943661803304464</v>
+        <v>0.09406593276758558</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>858546</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>838567</v>
+        <v>837647</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>875213</v>
+        <v>875118</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9058882963513115</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8848078195818349</v>
+        <v>0.8838372664093784</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.923474550858828</v>
+        <v>0.9233741258450602</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>935</v>
@@ -2812,19 +2812,19 @@
         <v>979617</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>962064</v>
+        <v>962350</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>995424</v>
+        <v>995131</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9312821539097335</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9145958934297731</v>
+        <v>0.9148673789399039</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9463091898657044</v>
+        <v>0.9460313597188668</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1759</v>
@@ -2833,19 +2833,19 @@
         <v>1838162</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1810942</v>
+        <v>1811542</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1860141</v>
+        <v>1861278</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9192466104930376</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9056338196695531</v>
+        <v>0.9059340672324143</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9302380830149221</v>
+        <v>0.9308065229599072</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>287913</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>256635</v>
+        <v>255202</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>321162</v>
+        <v>320955</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0840185607854334</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07489102728451762</v>
+        <v>0.07447272804580804</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09372113854246493</v>
+        <v>0.09366076894361532</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>241</v>
@@ -2958,19 +2958,19 @@
         <v>257472</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>226602</v>
+        <v>229898</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>289792</v>
+        <v>293609</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07235804472465752</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06368237157492769</v>
+        <v>0.06460890310234906</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08144079426792912</v>
+        <v>0.0825135538443319</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>517</v>
@@ -2979,19 +2979,19 @@
         <v>545385</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>501870</v>
+        <v>501743</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>589969</v>
+        <v>590242</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07807851814310154</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07184875164190303</v>
+        <v>0.07183064796786121</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08446114883974158</v>
+        <v>0.08450028608582184</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3138866</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3105617</v>
+        <v>3105824</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3170144</v>
+        <v>3171577</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9159814392145665</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.906278861457535</v>
+        <v>0.9063392310563846</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9251089727154822</v>
+        <v>0.9255272719541919</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3057</v>
@@ -3029,19 +3029,19 @@
         <v>3300837</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3268517</v>
+        <v>3264700</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3331707</v>
+        <v>3328411</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9276419552753424</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9185592057320709</v>
+        <v>0.9174864461556683</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9363176284250723</v>
+        <v>0.935391096897651</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5990</v>
@@ -3050,19 +3050,19 @@
         <v>6439703</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6395119</v>
+        <v>6394846</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6483218</v>
+        <v>6483345</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9219214818568985</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9155388511602582</v>
+        <v>0.9154997139141779</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9281512483580969</v>
+        <v>0.9281693520321387</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>41607</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30057</v>
+        <v>30236</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55416</v>
+        <v>54007</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06165871379562538</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04454277638305346</v>
+        <v>0.04480684912640982</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08212157415856333</v>
+        <v>0.0800344526763299</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -3415,19 +3415,19 @@
         <v>48675</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35914</v>
+        <v>36740</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>65292</v>
+        <v>65135</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07234333938291018</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0533766051091041</v>
+        <v>0.0546039510313577</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09704018780116604</v>
+        <v>0.09680584008867249</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -3436,19 +3436,19 @@
         <v>90283</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>73581</v>
+        <v>72178</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>110928</v>
+        <v>109478</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06699325278203001</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05460018001117067</v>
+        <v>0.05355883189175541</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08231315347672744</v>
+        <v>0.08123667064394223</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>633193</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>619384</v>
+        <v>620793</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>644743</v>
+        <v>644564</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9383412862043746</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9178784258414368</v>
+        <v>0.9199655473236701</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9554572236169466</v>
+        <v>0.9551931508735902</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>620</v>
@@ -3486,19 +3486,19 @@
         <v>624164</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>607547</v>
+        <v>607704</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>636925</v>
+        <v>636099</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9276566606170898</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9029598121988336</v>
+        <v>0.9031941599113268</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9466233948908958</v>
+        <v>0.9453960489686423</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1229</v>
@@ -3507,19 +3507,19 @@
         <v>1257356</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1236711</v>
+        <v>1238161</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1274058</v>
+        <v>1275461</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9330067472179699</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9176868465232727</v>
+        <v>0.9187633293560578</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9453998199888294</v>
+        <v>0.9464411681082446</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>60475</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46420</v>
+        <v>46246</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>78632</v>
+        <v>77728</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05914796627862472</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04540157603854762</v>
+        <v>0.04523142029608369</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07690724081942397</v>
+        <v>0.0760231776278365</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>44</v>
@@ -3632,19 +3632,19 @@
         <v>48599</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35637</v>
+        <v>35372</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64471</v>
+        <v>64539</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04659946622493544</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03417067874373216</v>
+        <v>0.03391619838468649</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06181851815942056</v>
+        <v>0.06188351298916035</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>101</v>
@@ -3653,19 +3653,19 @@
         <v>109074</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>90516</v>
+        <v>90774</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>132474</v>
+        <v>130220</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05281149453312486</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04382607338569727</v>
+        <v>0.04395084947156241</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06414153305492162</v>
+        <v>0.06305003344001572</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>961956</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>943799</v>
+        <v>944703</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>976011</v>
+        <v>976185</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9408520337213753</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9230927591805761</v>
+        <v>0.9239768223721636</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9545984239614524</v>
+        <v>0.9547685797039165</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>933</v>
@@ -3703,19 +3703,19 @@
         <v>994314</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>978442</v>
+        <v>978374</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1007276</v>
+        <v>1007541</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9534005337750645</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9381814818405795</v>
+        <v>0.9381164870108395</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9658293212562679</v>
+        <v>0.9660838016153135</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1827</v>
@@ -3724,19 +3724,19 @@
         <v>1956270</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1932870</v>
+        <v>1935124</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1974828</v>
+        <v>1974570</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9471885054668752</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9358584669450785</v>
+        <v>0.9369499665599844</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9561739266143028</v>
+        <v>0.9560491505284376</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>36666</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26142</v>
+        <v>25579</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50874</v>
+        <v>49360</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0482731666602683</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03441748243358907</v>
+        <v>0.03367646204272198</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06697853781704974</v>
+        <v>0.06498560371142674</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -3849,19 +3849,19 @@
         <v>31561</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21106</v>
+        <v>22562</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44781</v>
+        <v>46347</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04020446941625919</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02688641022174172</v>
+        <v>0.02874036976715194</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05704555838329951</v>
+        <v>0.05903945800367477</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>62</v>
@@ -3870,19 +3870,19 @@
         <v>68227</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>53225</v>
+        <v>54571</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>87629</v>
+        <v>89303</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04417232092120631</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03445984959135298</v>
+        <v>0.03533133711248973</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05673402318254333</v>
+        <v>0.05781785359566044</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>722886</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>708678</v>
+        <v>710192</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>733410</v>
+        <v>733973</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9517268333397317</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.93302146218295</v>
+        <v>0.9350143962885731</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9655825175664108</v>
+        <v>0.9663235379572779</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>708</v>
@@ -3920,19 +3920,19 @@
         <v>753450</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>740230</v>
+        <v>738664</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>763905</v>
+        <v>762449</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9597955305837408</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9429544416167005</v>
+        <v>0.9409605419963253</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9731135897782583</v>
+        <v>0.9712596302328481</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1370</v>
@@ -3941,19 +3941,19 @@
         <v>1476336</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1456934</v>
+        <v>1455260</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1491338</v>
+        <v>1489992</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9558276790787937</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9432659768174565</v>
+        <v>0.9421821464043395</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9655401504086469</v>
+        <v>0.9646686628875102</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>60886</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46374</v>
+        <v>48217</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>77219</v>
+        <v>78267</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0649401591428847</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04946245417822633</v>
+        <v>0.0514279287412136</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08236068021627205</v>
+        <v>0.08347921005490394</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -4066,19 +4066,19 @@
         <v>62618</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>47020</v>
+        <v>47340</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>80310</v>
+        <v>80796</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05999152529747546</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04504804481218144</v>
+        <v>0.04535466778393607</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07694159602130253</v>
+        <v>0.07740732061045121</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>113</v>
@@ -4087,19 +4087,19 @@
         <v>123504</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>103150</v>
+        <v>103524</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>148432</v>
+        <v>150020</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0623332040131499</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05206055918398942</v>
+        <v>0.05224927605013391</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07491493839653744</v>
+        <v>0.07571601483812859</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>876681</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>860348</v>
+        <v>859300</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>891193</v>
+        <v>889350</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9350598408571152</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.917639319783728</v>
+        <v>0.916520789945096</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9505375458217736</v>
+        <v>0.9485720712587864</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>905</v>
@@ -4137,19 +4137,19 @@
         <v>981161</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>963469</v>
+        <v>962983</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>996759</v>
+        <v>996439</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9400084747025246</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9230584039786978</v>
+        <v>0.922592679389549</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9549519551878186</v>
+        <v>0.9546453322160641</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1778</v>
@@ -4158,19 +4158,19 @@
         <v>1857842</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1832914</v>
+        <v>1831326</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1878196</v>
+        <v>1877822</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9376667959868501</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9250850616034625</v>
+        <v>0.9242839851618709</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9479394408160106</v>
+        <v>0.9477507239498659</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>199634</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>173432</v>
+        <v>172436</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>228601</v>
+        <v>226949</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05881354040970593</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05109440142445725</v>
+        <v>0.05080103231740923</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0673473647381875</v>
+        <v>0.06686066821998142</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>172</v>
@@ -4283,19 +4283,19 @@
         <v>191453</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>163299</v>
+        <v>164748</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>220707</v>
+        <v>219814</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05401359446578705</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04607045518126178</v>
+        <v>0.04647924367404022</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06226673053886253</v>
+        <v>0.06201478604536539</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>365</v>
@@ -4304,19 +4304,19 @@
         <v>391087</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>353966</v>
+        <v>354445</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>430722</v>
+        <v>433222</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05636162025411929</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05101192179540998</v>
+        <v>0.05108095029341373</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06207361678220056</v>
+        <v>0.06243388843123297</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3194716</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3165749</v>
+        <v>3167401</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3220918</v>
+        <v>3221914</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9411864595902941</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9326526352618123</v>
+        <v>0.9331393317800186</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9489055985755426</v>
+        <v>0.9491989676825909</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3166</v>
@@ -4354,19 +4354,19 @@
         <v>3353089</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3323835</v>
+        <v>3324728</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3381243</v>
+        <v>3379794</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.945986405534213</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9377332694611373</v>
+        <v>0.9379852139546342</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9539295448187383</v>
+        <v>0.9535207563259598</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6204</v>
@@ -4375,19 +4375,19 @@
         <v>6547805</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6508170</v>
+        <v>6505670</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6584926</v>
+        <v>6584447</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9436383797458807</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9379263832177995</v>
+        <v>0.937566111568767</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.94898807820459</v>
+        <v>0.9489190497065862</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>49691</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36332</v>
+        <v>36777</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>67296</v>
+        <v>67611</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07194131794811015</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05260033261241415</v>
+        <v>0.05324489424142164</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09743024433579037</v>
+        <v>0.09788576583586658</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>92</v>
@@ -4740,19 +4740,19 @@
         <v>46922</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37614</v>
+        <v>37482</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58951</v>
+        <v>57623</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06400357712968872</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05130711461019982</v>
+        <v>0.05112658005563592</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08041178718103072</v>
+        <v>0.07860000958389657</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>147</v>
@@ -4761,19 +4761,19 @@
         <v>96612</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>81690</v>
+        <v>80254</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>114430</v>
+        <v>115157</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.06785424850188149</v>
+        <v>0.0678542485018815</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05737361562866085</v>
+        <v>0.05636507297906931</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08036804334205035</v>
+        <v>0.08087900752437353</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>641019</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>623414</v>
+        <v>623099</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>654378</v>
+        <v>653933</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.92805868205189</v>
+        <v>0.9280586820518898</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9025697556642097</v>
+        <v>0.9021142341641329</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9473996673875859</v>
+        <v>0.9467551057585782</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1147</v>
@@ -4811,19 +4811,19 @@
         <v>686191</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>674162</v>
+        <v>675490</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>695499</v>
+        <v>695631</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9359964228703113</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9195882128189695</v>
+        <v>0.9213999904161034</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9486928853898</v>
+        <v>0.948873419944364</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1822</v>
@@ -4832,19 +4832,19 @@
         <v>1327211</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1309393</v>
+        <v>1308666</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1342133</v>
+        <v>1343569</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9321457514981186</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9196319566579496</v>
+        <v>0.9191209924756263</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9426263843713392</v>
+        <v>0.9436349270209305</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>74814</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>56601</v>
+        <v>57286</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>98438</v>
+        <v>97025</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07132496756400923</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05396142201807629</v>
+        <v>0.05461417537353568</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0938472252602648</v>
+        <v>0.09249981712035645</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>88</v>
@@ -4957,19 +4957,19 @@
         <v>62804</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>49575</v>
+        <v>49147</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>80816</v>
+        <v>81099</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05864944392631528</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04629552065556358</v>
+        <v>0.04589552025317303</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0754695212642064</v>
+        <v>0.07573440510915946</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>153</v>
@@ -4978,19 +4978,19 @@
         <v>137618</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>114754</v>
+        <v>113272</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>169881</v>
+        <v>166437</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06492166545598324</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05413527026294302</v>
+        <v>0.05343618448500261</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08014170320454476</v>
+        <v>0.07851716602372615</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>974103</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>950479</v>
+        <v>951892</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>992316</v>
+        <v>991631</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9286750324359908</v>
+        <v>0.9286750324359907</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9061527747397347</v>
+        <v>0.9075001828796437</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9460385779819237</v>
+        <v>0.9453858246264644</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1428</v>
@@ -5028,19 +5028,19 @@
         <v>1008034</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>990022</v>
+        <v>989739</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1021263</v>
+        <v>1021691</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9413505560736847</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9245304787357935</v>
+        <v>0.9242655948908409</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9537044793444365</v>
+        <v>0.9541044797468272</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2327</v>
@@ -5049,19 +5049,19 @@
         <v>1982137</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1949874</v>
+        <v>1953318</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2005001</v>
+        <v>2006483</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9350783345440168</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9198582967954552</v>
+        <v>0.9214828339762738</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.945864729737057</v>
+        <v>0.9465638155149974</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>32972</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22575</v>
+        <v>22388</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46610</v>
+        <v>46992</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04105716716527781</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02811115231779051</v>
+        <v>0.02787850007514225</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05803940385285857</v>
+        <v>0.05851546894676992</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -5174,19 +5174,19 @@
         <v>49481</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37562</v>
+        <v>38046</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62900</v>
+        <v>63051</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.06091727318819821</v>
+        <v>0.06091727318819822</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04624420194131672</v>
+        <v>0.04684017946584038</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07743780640455374</v>
+        <v>0.07762393925691069</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>99</v>
@@ -5195,19 +5195,19 @@
         <v>82453</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>64885</v>
+        <v>65542</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>100167</v>
+        <v>99508</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05104368809164241</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04016840200673576</v>
+        <v>0.0405749450409351</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06200992763064447</v>
+        <v>0.06160243547787891</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>770101</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>756463</v>
+        <v>756081</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>780498</v>
+        <v>780685</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9589428328347221</v>
+        <v>0.9589428328347223</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9419605961471414</v>
+        <v>0.9414845310532304</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9718888476822094</v>
+        <v>0.972121499924858</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>978</v>
@@ -5245,19 +5245,19 @@
         <v>762778</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>749359</v>
+        <v>749208</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>774697</v>
+        <v>774213</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9390827268118018</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9225621935954462</v>
+        <v>0.9223760607430893</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9537557980586833</v>
+        <v>0.9531598205341596</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1624</v>
@@ -5266,19 +5266,19 @@
         <v>1532879</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1515165</v>
+        <v>1515824</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1550447</v>
+        <v>1549790</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9489563119083576</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9379900723693556</v>
+        <v>0.9383975645221211</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9598315979932643</v>
+        <v>0.9594250549590647</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>63546</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48125</v>
+        <v>49257</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>81558</v>
+        <v>81972</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06418406070059247</v>
+        <v>0.06418406070059246</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04860771065764692</v>
+        <v>0.04975161625596157</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08237650070316982</v>
+        <v>0.08279449829483664</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>110</v>
@@ -5391,19 +5391,19 @@
         <v>72973</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59713</v>
+        <v>61912</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>86706</v>
+        <v>87582</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06521064065443302</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05336045328184461</v>
+        <v>0.0553262793967692</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07748237476769382</v>
+        <v>0.07826502244254334</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>172</v>
@@ -5412,19 +5412,19 @@
         <v>136520</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>114995</v>
+        <v>116849</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>160028</v>
+        <v>159103</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06472874017836543</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05452332063929737</v>
+        <v>0.05540213085979089</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07587483983304182</v>
+        <v>0.07543621142436713</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>926516</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>908504</v>
+        <v>908090</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>941937</v>
+        <v>940805</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9358159392994075</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9176234992968298</v>
+        <v>0.9172055017051632</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.951392289342353</v>
+        <v>0.9502483837440383</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1452</v>
@@ -5462,19 +5462,19 @@
         <v>1046068</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1032335</v>
+        <v>1031459</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1059328</v>
+        <v>1057129</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9347893593455671</v>
+        <v>0.9347893593455672</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9225176252323063</v>
+        <v>0.9217349775574566</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9466395467181553</v>
+        <v>0.9446737206032308</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2396</v>
@@ -5483,19 +5483,19 @@
         <v>1972584</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1949076</v>
+        <v>1950001</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1994109</v>
+        <v>1992255</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9352712598216346</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9241251601669584</v>
+        <v>0.9245637885756329</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9454766793607033</v>
+        <v>0.9445978691402094</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>221023</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>191169</v>
+        <v>193808</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>253711</v>
+        <v>259539</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.06256369914428099</v>
+        <v>0.062563699144281</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05411317423927597</v>
+        <v>0.0548601524463539</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07181674781885777</v>
+        <v>0.07346635289311175</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>359</v>
@@ -5608,19 +5608,19 @@
         <v>232180</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>207722</v>
+        <v>206702</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>259480</v>
+        <v>259637</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06215911422152013</v>
+        <v>0.06215911422152014</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05561134505675745</v>
+        <v>0.05533809892483401</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0694679133265199</v>
+        <v>0.06950992358706531</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>571</v>
@@ -5629,19 +5629,19 @@
         <v>453203</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>413735</v>
+        <v>411307</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>494975</v>
+        <v>496080</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.0623557707449064</v>
+        <v>0.06235577074490638</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05692546160552825</v>
+        <v>0.05659137421023271</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06810318948950893</v>
+        <v>0.06825525963253751</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3311739</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3279051</v>
+        <v>3273223</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3341593</v>
+        <v>3338954</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9374363008557191</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9281832521811423</v>
+        <v>0.9265336471068881</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9458868257607241</v>
+        <v>0.945139847553646</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5005</v>
@@ -5679,19 +5679,19 @@
         <v>3503071</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3475771</v>
+        <v>3475614</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3527529</v>
+        <v>3528549</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9378408857784798</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9305320866734801</v>
+        <v>0.9304900764129346</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9443886549432423</v>
+        <v>0.9446619010751661</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8169</v>
@@ -5700,19 +5700,19 @@
         <v>6814810</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6773038</v>
+        <v>6771933</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6854278</v>
+        <v>6856706</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9376442292550935</v>
+        <v>0.9376442292550937</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9318968105104909</v>
+        <v>0.9317447403674624</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9430745383944716</v>
+        <v>0.943408625789767</v>
       </c>
     </row>
     <row r="18">
